--- a/extension_board_v2/Bill of Materials.xlsx
+++ b/extension_board_v2/Bill of Materials.xlsx
@@ -2,20 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elesensehw\hardware\extension_board_v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hardware\extension_board_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="7068"/>
   </bookViews>
   <sheets>
     <sheet name="PCB_Project3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -460,9 +459,6 @@
     <t>1pF</t>
   </si>
   <si>
-    <t>C34, C38, C41, C43, C44, C51</t>
-  </si>
-  <si>
     <t>C42, C53, C45</t>
   </si>
   <si>
@@ -490,9 +486,6 @@
     <t>L3, L6, L7, L8, L9, L10</t>
   </si>
   <si>
-    <t>R09, R11</t>
-  </si>
-  <si>
     <t>weerstand SMD603, 240R</t>
   </si>
   <si>
@@ -503,13 +496,19 @@
   </si>
   <si>
     <t>630-HSMH-C190</t>
+  </si>
+  <si>
+    <t>C34, C38, C41, C43, C44, C51, C70</t>
+  </si>
+  <si>
+    <t>R09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,6 +528,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -582,7 +589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -594,10 +601,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -880,21 +888,21 @@
   </sheetPr>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -914,7 +922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -932,7 +940,7 @@
         <v>2725755</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -952,7 +960,7 @@
         <v>2320813</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -960,7 +968,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="1">
         <v>4</v>
@@ -972,7 +980,7 @@
         <v>1414601</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -992,7 +1000,7 @@
         <v>2776894</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1012,7 +1020,7 @@
         <v>1907314</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1032,7 +1040,7 @@
         <v>1828887</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1040,7 +1048,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
@@ -1052,7 +1060,7 @@
         <v>1650837</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1072,7 +1080,7 @@
         <v>1865466</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1092,7 +1100,7 @@
         <v>2496915</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1112,7 +1120,7 @@
         <v>2218849</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>145</v>
       </c>
@@ -1132,7 +1140,7 @@
         <v>2781427</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1152,7 +1160,7 @@
         <v>1535558</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1160,7 +1168,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D14" s="1">
         <v>6</v>
@@ -1172,15 +1180,15 @@
         <v>2627341</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>149</v>
+      <c r="C15" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="D15" s="1">
         <v>5</v>
@@ -1192,7 +1200,7 @@
         <v>2332508</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -1200,7 +1208,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -1212,7 +1220,7 @@
         <v>2496792</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1232,7 +1240,7 @@
         <v>2522382</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1252,7 +1260,7 @@
         <v>1759062</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1270,7 +1278,7 @@
         <v>1791462</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1282,13 +1290,13 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -1308,7 +1316,7 @@
         <v>1248989</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -1322,14 +1330,14 @@
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
@@ -1349,7 +1357,7 @@
         <v>1669753</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -1367,7 +1375,7 @@
         <v>2286003</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
@@ -1375,7 +1383,7 @@
         <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D25" s="1">
         <v>6</v>
@@ -1387,7 +1395,7 @@
         <v>2286389</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>64</v>
       </c>
@@ -1407,7 +1415,7 @@
         <v>2497374</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
@@ -1427,7 +1435,7 @@
         <v>2497355</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
@@ -1447,7 +1455,7 @@
         <v>2447592</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>750</v>
       </c>
@@ -1467,7 +1475,7 @@
         <v>2447432</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>51</v>
       </c>
@@ -1487,7 +1495,7 @@
         <v>2059275</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>77</v>
       </c>
@@ -1507,7 +1515,7 @@
         <v>1670185</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>270</v>
       </c>
@@ -1515,7 +1523,7 @@
         <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
@@ -1527,7 +1535,7 @@
         <v>1697424</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>81</v>
@@ -1545,7 +1553,7 @@
         <v>2060088</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>83</v>
       </c>
@@ -1565,12 +1573,12 @@
         <v>2447183</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>240</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>86</v>
@@ -1585,7 +1593,7 @@
         <v>2447305</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>87</v>
@@ -1603,7 +1611,7 @@
         <v>2141216</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>91</v>
       </c>
@@ -1623,7 +1631,7 @@
         <v>2303055</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>91</v>
@@ -1641,7 +1649,7 @@
         <v>2447595</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>93</v>
       </c>
@@ -1661,7 +1669,7 @@
         <v>2324285</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>51</v>
       </c>
@@ -1681,7 +1689,7 @@
         <v>2447183</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>98</v>
       </c>
@@ -1701,7 +1709,7 @@
         <v>2447230</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>390</v>
       </c>
@@ -1721,7 +1729,7 @@
         <v>2502455</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>103</v>
       </c>
@@ -1741,7 +1749,7 @@
         <v>2360869</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>106</v>
       </c>
@@ -1761,7 +1769,7 @@
         <v>1081242</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>109</v>
       </c>
@@ -1779,7 +1787,7 @@
         <v>1447637</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>111</v>
       </c>
@@ -1799,7 +1807,7 @@
         <v>1506629</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>114</v>
       </c>
@@ -1817,7 +1825,7 @@
         <v>1467776</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>116</v>
       </c>
@@ -1835,7 +1843,7 @@
         <v>2517417</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>118</v>
       </c>
@@ -1855,7 +1863,7 @@
         <v>1825061</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>121</v>
       </c>
@@ -1875,7 +1883,7 @@
         <v>2066354</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>124</v>
       </c>
@@ -1889,13 +1897,13 @@
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>127</v>
       </c>
@@ -1913,7 +1921,7 @@
         <v>2506414</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>129</v>
       </c>
@@ -1933,7 +1941,7 @@
         <v>2377140</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>132</v>
       </c>
@@ -1945,13 +1953,13 @@
         <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>134</v>
       </c>
@@ -1969,7 +1977,7 @@
         <v>2212081</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>136</v>
       </c>
@@ -1983,13 +1991,13 @@
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>139</v>
       </c>
@@ -2009,7 +2017,7 @@
         <v>2854044</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>142</v>
       </c>

--- a/extension_board_v2/Bill of Materials.xlsx
+++ b/extension_board_v2/Bill of Materials.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="165">
   <si>
     <t>Name</t>
   </si>
@@ -279,9 +279,6 @@
     <t>R12, R13, R14</t>
   </si>
   <si>
-    <t>R15</t>
-  </si>
-  <si>
     <t>weerstand SMD603, 30R</t>
   </si>
   <si>
@@ -447,9 +444,6 @@
     <t>X1</t>
   </si>
   <si>
-    <t>X1G004691000112</t>
-  </si>
-  <si>
     <t>X2</t>
   </si>
   <si>
@@ -502,13 +496,31 @@
   </si>
   <si>
     <t>R09</t>
+  </si>
+  <si>
+    <t>7L-38.400MDG-T</t>
+  </si>
+  <si>
+    <t>MMSZ4678T1G</t>
+  </si>
+  <si>
+    <t>Zener diode 1.8V</t>
+  </si>
+  <si>
+    <t>DZ1</t>
+  </si>
+  <si>
+    <t>MMSZ4678T1GOSDKR-ND</t>
+  </si>
+  <si>
+    <t>R15, R100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,21 +539,13 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,12 +555,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,26 +583,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -886,10 +877,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,7 +927,7 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>2725755</v>
       </c>
     </row>
@@ -956,7 +947,7 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>2320813</v>
       </c>
     </row>
@@ -968,7 +959,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D4" s="1">
         <v>4</v>
@@ -976,7 +967,7 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>1414601</v>
       </c>
     </row>
@@ -996,7 +987,7 @@
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>2776894</v>
       </c>
     </row>
@@ -1016,7 +1007,7 @@
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>1907314</v>
       </c>
     </row>
@@ -1028,7 +1019,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -1036,7 +1027,7 @@
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>1828887</v>
       </c>
     </row>
@@ -1048,7 +1039,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
@@ -1056,7 +1047,7 @@
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>1650837</v>
       </c>
     </row>
@@ -1076,7 +1067,7 @@
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>1865466</v>
       </c>
     </row>
@@ -1096,7 +1087,7 @@
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>2496915</v>
       </c>
     </row>
@@ -1116,13 +1107,13 @@
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>2218849</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>32</v>
@@ -1136,7 +1127,7 @@
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>2781427</v>
       </c>
     </row>
@@ -1156,7 +1147,7 @@
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>1535558</v>
       </c>
     </row>
@@ -1168,7 +1159,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D14" s="1">
         <v>6</v>
@@ -1176,7 +1167,7 @@
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>2627341</v>
       </c>
     </row>
@@ -1187,8 +1178,8 @@
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>148</v>
+      <c r="C15" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="D15" s="1">
         <v>5</v>
@@ -1196,7 +1187,7 @@
       <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>2332508</v>
       </c>
     </row>
@@ -1208,7 +1199,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -1216,7 +1207,7 @@
       <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>2496792</v>
       </c>
     </row>
@@ -1236,7 +1227,7 @@
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17">
         <v>2522382</v>
       </c>
     </row>
@@ -1256,7 +1247,7 @@
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18">
         <v>1759062</v>
       </c>
     </row>
@@ -1274,7 +1265,7 @@
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19">
         <v>1791462</v>
       </c>
     </row>
@@ -1290,10 +1281,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="F20" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1312,7 +1303,7 @@
       <c r="E21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21">
         <v>1248989</v>
       </c>
     </row>
@@ -1330,12 +1321,12 @@
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I22" s="5"/>
+        <v>151</v>
+      </c>
+      <c r="F22" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -1353,7 +1344,7 @@
       <c r="E23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23">
         <v>1669753</v>
       </c>
     </row>
@@ -1371,7 +1362,7 @@
       <c r="E24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24">
         <v>2286003</v>
       </c>
     </row>
@@ -1383,7 +1374,7 @@
         <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D25" s="1">
         <v>6</v>
@@ -1391,7 +1382,7 @@
       <c r="E25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25">
         <v>2286389</v>
       </c>
     </row>
@@ -1411,7 +1402,7 @@
       <c r="E26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26">
         <v>2497374</v>
       </c>
     </row>
@@ -1431,7 +1422,7 @@
       <c r="E27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27">
         <v>2497355</v>
       </c>
     </row>
@@ -1451,7 +1442,7 @@
       <c r="E28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28">
         <v>2447592</v>
       </c>
     </row>
@@ -1471,7 +1462,7 @@
       <c r="E29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29">
         <v>2447432</v>
       </c>
     </row>
@@ -1491,7 +1482,7 @@
       <c r="E30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30">
         <v>2059275</v>
       </c>
     </row>
@@ -1511,7 +1502,7 @@
       <c r="E31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31">
         <v>1670185</v>
       </c>
     </row>
@@ -1523,7 +1514,7 @@
         <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
@@ -1531,7 +1522,7 @@
       <c r="E32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32">
         <v>1697424</v>
       </c>
     </row>
@@ -1549,7 +1540,7 @@
       <c r="E33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33">
         <v>2060088</v>
       </c>
     </row>
@@ -1569,7 +1560,7 @@
       <c r="E34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34">
         <v>2447183</v>
       </c>
     </row>
@@ -1578,10 +1569,10 @@
         <v>240</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -1589,25 +1580,25 @@
       <c r="E35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35">
         <v>2447305</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36">
         <v>2141216</v>
       </c>
     </row>
@@ -1616,28 +1607,28 @@
         <v>91</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37">
         <v>2303055</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -1645,27 +1636,27 @@
       <c r="E38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38">
         <v>2447595</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39">
         <v>2324285</v>
       </c>
     </row>
@@ -1674,10 +1665,10 @@
         <v>51</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -1685,19 +1676,19 @@
       <c r="E40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40">
         <v>2447183</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -1705,7 +1696,7 @@
       <c r="E41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41">
         <v>2447230</v>
       </c>
     </row>
@@ -1714,68 +1705,68 @@
         <v>390</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42">
         <v>2502455</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43">
         <v>2360869</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="D44" s="1">
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44">
         <v>1081242</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -1783,37 +1774,37 @@
       <c r="E45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45">
         <v>1447637</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46">
         <v>1506629</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -1821,17 +1812,17 @@
       <c r="E47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47">
         <v>1467776</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
@@ -1839,77 +1830,77 @@
       <c r="E48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48">
         <v>2517417</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="D49" s="1">
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49">
         <v>1825061</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50">
         <v>2066354</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="D51" s="1">
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
+      </c>
+      <c r="F51" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
@@ -1917,55 +1908,55 @@
       <c r="E52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52">
         <v>2506414</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="D53" s="1">
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53">
         <v>2377140</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="F54" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -1973,57 +1964,57 @@
       <c r="E55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55">
         <v>2212081</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="D56" s="1">
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
+      </c>
+      <c r="F56" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="D57" s="1">
         <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57">
         <v>2854044</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -2031,72 +2022,36 @@
       <c r="E58" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="3">
-        <v>2545845</v>
-      </c>
+      <c r="F58">
+        <v>2325484</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>151</v>
+      </c>
+      <c r="F59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" tooltip="2725755" display="http://be.farnell.com/infineon/bat1704wh6327xtsa1/diode-schottky-4v-0-13a-sot-323/dp/2725755"/>
-    <hyperlink ref="F3" r:id="rId2" tooltip="2320813" display="http://be.farnell.com/multicomp/mc0603b104j160ct/cap-mlcc-x7r-100nf-16v-0603/dp/2320813"/>
-    <hyperlink ref="F4" r:id="rId3" tooltip="1414601" display="http://be.farnell.com/kemet/c0603c100j5gactu/cap-mlcc-c0g-np0-10pf-50v-0603/dp/1414601"/>
-    <hyperlink ref="F5" r:id="rId4" tooltip="2776894" display="http://be.farnell.com/kemet/c1206x106j3ractu/cap-mlcc-x7r-5-25v-1206/dp/2776894"/>
-    <hyperlink ref="F6" r:id="rId5" tooltip="1907314" display="http://be.farnell.com/tdk/c1608c0g1h103j080aa/cap-mlcc-c0g-np0-10nf-50v-0603/dp/1907314"/>
-    <hyperlink ref="F7" r:id="rId6" tooltip="1828887" display="http://be.farnell.com/murata/grm155r71h103ka88d/cap-mlcc-x7r-10nf-50v-0402/dp/1828887"/>
-    <hyperlink ref="F8" r:id="rId7" tooltip="1650837" display="http://be.farnell.com/kemet/c0603c105k4ractu/cap-mlcc-x7r-1uf-16v-0603/dp/1650837"/>
-    <hyperlink ref="F9" r:id="rId8" tooltip="1865466" display="http://be.farnell.com/kemet/c0603c123j3gactu/cap-mlcc-c0g-np0-12nf-25v-0603/dp/1865466"/>
-    <hyperlink ref="F10" r:id="rId9" tooltip="2496915" display="http://be.farnell.com/walsin/0603n821j500ct/capacitor-mlcc-np0-820pf-50v-0603/dp/2496915"/>
-    <hyperlink ref="F11" r:id="rId10" tooltip="2218849" display="http://be.farnell.com/murata/grm1555c1h220ja01d/cap-mlcc-c0g-np0-22pf-50v-0402/dp/2218849"/>
-    <hyperlink ref="F12" r:id="rId11" display="https://be.farnell.com/murata/gjm1555c1h1r0wb01d/cap-1pf-50v-c0g-np0-0402/dp/2781427"/>
-    <hyperlink ref="F13" r:id="rId12" tooltip="1535558" display="http://be.farnell.com/kemet/c0402c102j5gactu/cap-mlcc-c0g-np0-1nf-50v-0402/dp/1535558"/>
-    <hyperlink ref="F14" r:id="rId13" tooltip="2627341" display="http://uk.farnell.com/multicomp/mc0402b104j100ct/cap-mlcc-x7r-0-1uf-10v-0402/dp/2627341"/>
-    <hyperlink ref="F16" r:id="rId14" tooltip="2496792" display="http://be.farnell.com/walsin/0402n101j500ct/capacitor-mlcc-np0-100pf-50v-0402/dp/2496792"/>
-    <hyperlink ref="F17" r:id="rId15" tooltip="2522382" display="http://uk.farnell.com/kemet/c0402c152j5ractu/cap-mlcc-x7r-1500pf-50v-0402/dp/2522382"/>
-    <hyperlink ref="F18" r:id="rId16" tooltip="1759062" display="http://be.farnell.com/multicomp/mc0603n470j500ct/cap-mlcc-c0g-np0-47pf-50v-0603/dp/1759062"/>
-    <hyperlink ref="F15" r:id="rId17" display="https://be.farnell.com/avx/04025a470fat2a/cap-47pf-50v-1-c0g-np0-0402/dp/2332508"/>
-    <hyperlink ref="F19" r:id="rId18" display="http://be.farnell.com/infineon/esd0p8rfle6327xtsa1/diode-esd-50v-dual-tslp-4-7/dp/1791462?ost=1791462&amp;iscrfnonsku=false&amp;ddkey=http%3Anl-BE%2FElement14_Belgium%2Fsearch"/>
-    <hyperlink ref="F20" r:id="rId19"/>
-    <hyperlink ref="F21" r:id="rId20" tooltip="1248989" display="http://be.farnell.com/amp-te-connectivity/5-1814400-1/rf-coaxial-sma-right-angle-jack/dp/1248989"/>
-    <hyperlink ref="F22" r:id="rId21"/>
-    <hyperlink ref="F23" r:id="rId22" tooltip="1669753" display="http://be.farnell.com/tdk/mpz2012s601a/ferrite-bead-0-1ohm-2a-0805/dp/1669753"/>
-    <hyperlink ref="F24" r:id="rId23" tooltip="2286003" display="http://be.farnell.com/coilcraft/0603cs-51nxjlu/inductor-rf-51nh-5-1-9ghz-smd/dp/2286003"/>
-    <hyperlink ref="F25" r:id="rId24" tooltip="2286389" display="http://be.farnell.com/coilcraft/0805cs-471xglc/inductor-rf-470nh-2-375mhz-smd/dp/2286389"/>
-    <hyperlink ref="F26" r:id="rId25" tooltip="2497374" display="http://be.farnell.com/broadcom-limited/hsmg-c190/led-green-15mcd-572nm/dp/2497374"/>
-    <hyperlink ref="F27" r:id="rId26" tooltip="2497355" display="http://be.farnell.com/broadcom-limited/hsmy-c190/led-yellow-8mcd-586nm/dp/2497355"/>
-    <hyperlink ref="F32" r:id="rId27" tooltip="1697424" display="http://be.farnell.com/neohm-te-connectivity/cpf0805b270re1/res-thin-film-270r-0-1-0-1w-0805/dp/1697424"/>
-    <hyperlink ref="F28" r:id="rId28" tooltip="2447592" display="http://be.farnell.com/multicomp/mcwr08x1501ftl/res-thick-film-1k5-1-0-125w-0805/dp/2447592"/>
-    <hyperlink ref="F29" r:id="rId29" tooltip="2447432" display="http://be.farnell.com/multicomp/mcwr06x7500ftl/res-thick-film-750-ohm-1-0-1w/dp/2447432"/>
-    <hyperlink ref="F30" r:id="rId30" tooltip="2059275" display="http://be.farnell.com/panasonic-electronic-components/erj3ekf51r0v/res-thick-film-51r-1-0-1w-0603/dp/2059275"/>
-    <hyperlink ref="F31" r:id="rId31" tooltip="1670185" display="http://be.farnell.com/panasonic-electronic-components/era3aeb512v/res-thin-film-5k1-0-1-0-1w-0603/dp/1670185"/>
-    <hyperlink ref="F33" r:id="rId32" display="https://be.farnell.com/panasonic/exb38v330jv/resistor-cvex-array-0603x4-33r/dp/2060088?ost=2060088"/>
-    <hyperlink ref="F34" r:id="rId33" tooltip="2447183" display="http://be.farnell.com/multicomp/mcwr04x49r9ftl/res-thick-film-49-9ohm-1-0-0625w/dp/2447183"/>
-    <hyperlink ref="F35" r:id="rId34" tooltip="2447305" display="http://be.farnell.com/multicomp/mcwr06x2400ftl/res-thick-film-240-ohm-1-0-1w/dp/2447305"/>
-    <hyperlink ref="F36" r:id="rId35" display="https://be.farnell.com/vishay/crcw060330r0fkea/res-30r-1-0-1w-0603-thick-film/dp/2141216"/>
-    <hyperlink ref="F37" r:id="rId36" tooltip="2303055" display="http://be.farnell.com/panasonic-electronic-components/erj3ekf91r0v/res-thick-film-91r-1-0-1w-0603/dp/2303055"/>
-    <hyperlink ref="F38" r:id="rId37" tooltip="2447595" display="http://be.farnell.com/multicomp/mcwr08x1801ftl/res-thick-film-1k8-1-0-125w-0805/dp/2447595?st=resistor%201.8k%200805"/>
-    <hyperlink ref="F39" r:id="rId38" tooltip="2324285" display="http://be.farnell.com/panasonic-electronic-components/erj2gej200x/res-thick-film-20r-5-0-1w-0402/dp/2324285"/>
-    <hyperlink ref="F40" r:id="rId39" tooltip="2447183" display="http://be.farnell.com/multicomp/mcwr04x49r9ftl/res-thick-film-49-9ohm-1-0-0625w/dp/2447183"/>
-    <hyperlink ref="F41" r:id="rId40" tooltip="2447230" display="http://be.farnell.com/multicomp/mcwr06x1002ftl/res-thick-film-10k-1-0-1w-0603/dp/2447230"/>
-    <hyperlink ref="F42" r:id="rId41" tooltip="2502455" display="http://be.farnell.com/walsin/wr06x3900ftl/res-thick-film-390r-1-75v-0603/dp/2502455"/>
-    <hyperlink ref="F43" r:id="rId42" tooltip="2360869" display="http://uk.farnell.com/epcos/b39162b3522u410/filter-saw-rf-1575-42mhz/dp/2360869"/>
-    <hyperlink ref="F44" r:id="rId43" tooltip="1081242" display="http://be.farnell.com/nxp/bc856-215/transistor-pnp-65v-0-1a-sot-23/dp/1081242"/>
-    <hyperlink ref="F45" r:id="rId44" display="http://uk.farnell.com/stmicroelectronics/stm32f103c8t6/mcu-32bit-cortex-m3-72mhz-lqfp/dp/1447637?ost=1447637&amp;iscrfnonsku=false&amp;ddkey=http%3Aen-GB%2FElement14_United_Kingdom%2Fsearch"/>
-    <hyperlink ref="F46" r:id="rId45" tooltip="1506629" display="http://be.farnell.com/nxp/ip4220cz6-125/esd-protection-dual-usb-2-0-6tsop/dp/1506629"/>
-    <hyperlink ref="F47" r:id="rId46" tooltip="1467776" display="http://be.farnell.com/stmicroelectronics/ld1117as33tr/ic-v-reg-ldo-3-3v-smd/dp/1467776"/>
-    <hyperlink ref="F48" r:id="rId47" tooltip="2517417" display="http://be.farnell.com/maxim-integrated-products/max2870etj/pll-w-vco-23-5mhz-6ghz-tqfn-32/dp/2517417"/>
-    <hyperlink ref="F49" r:id="rId48" display="http://uk.farnell.com/microchip/mcp9804-e-ms/ic-temp-sensor-i2c-2-7v-8msop/dp/1825061?ost=1825061&amp;iscrfnonsku=false&amp;ddkey=http%3Aen-GB%2FElement14_United_Kingdom%2Fsearch"/>
-    <hyperlink ref="F50" r:id="rId49" display="http://uk.farnell.com/rfmd/sbb3089z/amp-rf-gain-bck-50-6000mhz-sot89/dp/2066354?ost=SBB3089Z&amp;iscrfnonsku=false&amp;ddkey=http%3Aen-GB%2FElement14_United_Kingdom%2Fsearch"/>
-    <hyperlink ref="F51" r:id="rId50"/>
-    <hyperlink ref="F52" r:id="rId51" tooltip="2506414" display="http://be.farnell.com/linear-technology/ltc5549iudb-trmpbf/double-balanced-mixer-2ghz-14ghz/dp/2506414"/>
-    <hyperlink ref="F53" r:id="rId52" tooltip="2377140" display="http://uk.farnell.com/analog-devices/adl5602arkz-r7/rf-if-amp-18-3db-50mhz-4ghz-sot/dp/2377140"/>
-    <hyperlink ref="F54" r:id="rId53" tooltip="Click to view additional information on this product." display="https://www.mouser.be/ProductDetail/Skyworks-Solutions-Inc/SKY13322-375LF/?qs=sGAEpiMZZMtsfndvJ9ArQ1GAoWUJ3yIMNvx9T%252bZryz4%3d"/>
-    <hyperlink ref="F55" r:id="rId54" display="http://uk.farnell.com/nxp/sa612ad-01/ic-mixer-osc-double-balanced-8soic/dp/2212081?ost=2212081&amp;iscrfnonsku=false&amp;ddkey=http%3Aen-GB%2FElement14_United_Kingdom%2Fsearch"/>
-    <hyperlink ref="F56" r:id="rId55"/>
-    <hyperlink ref="F58" r:id="rId56" tooltip="2545845" display="http://be.farnell.com/epson/x1g004691000112/tcxo-gps-38-4mhz-2x1-6mm-clip/dp/2545845"/>
-    <hyperlink ref="F57" r:id="rId57" display="https://be.farnell.com/multicomp/mcsjk-7i-16-00-18-10-60-b-10/crystal-16mhz-18pf-5mm-x-3-2mm/dp/2854044?st=MCSJK-7I-16.00-18-10-60-B-10%20-%20%20Crystal,%2016%20MHz,%20SMD,%205mm%20x%203.2mm,%2010%20ppm,%2018%20pF,%2010%20ppm"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" blackAndWhite="1" r:id="rId58"/>
+  <pageSetup paperSize="9" scale="49" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>